--- a/ConsoleApp/ConsoleApp/user_files/contingent.xlsx
+++ b/ConsoleApp/ConsoleApp/user_files/contingent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dmitriy\Source\GitRepos\Residual-Knowledge-Test-Console-App\ConsoleApp\ConsoleApp\user_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5AEB086-DFF7-40E6-8717-7488D47627F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8A9853-728A-4FD2-B2DE-6BEF3280356F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,9 +114,6 @@
     <t>Бакалавр</t>
   </si>
   <si>
-    <t>16\5006\1 Математическое обеспечение и администрирование информационных систем</t>
-  </si>
-  <si>
     <t>st999999@student.spbu.ru</t>
   </si>
   <si>
@@ -187,6 +184,9 @@
   </si>
   <si>
     <t>2014</t>
+  </si>
+  <si>
+    <t>18\5008\1 Математическое обеспечение и администрирование информационных систем</t>
   </si>
 </sst>
 </file>
@@ -620,7 +620,7 @@
   <dimension ref="A1:U20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:U20"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -716,22 +716,22 @@
         <v>28</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="K2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O2" s="2">
         <v>999999</v>
@@ -740,19 +740,19 @@
         <v>4.29</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
@@ -766,13 +766,13 @@
         <v>23</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>27</v>
@@ -781,22 +781,22 @@
         <v>28</v>
       </c>
       <c r="I3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="K3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O3" s="5">
         <v>999999</v>
@@ -805,19 +805,19 @@
         <v>4.57</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
@@ -840,28 +840,28 @@
         <v>26</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>28</v>
       </c>
       <c r="I4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="K4" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O4" s="5">
         <v>999999</v>
@@ -870,19 +870,19 @@
         <v>3.58</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
@@ -896,37 +896,37 @@
         <v>23</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="J5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="J5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="M5" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O5" s="5">
         <v>999999</v>
@@ -935,19 +935,19 @@
         <v>3.67</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
@@ -961,13 +961,13 @@
         <v>23</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>27</v>
@@ -976,22 +976,22 @@
         <v>28</v>
       </c>
       <c r="I6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="K6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O6" s="5">
         <v>999999</v>
@@ -1000,19 +1000,19 @@
         <v>3.6</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
@@ -1041,22 +1041,22 @@
         <v>28</v>
       </c>
       <c r="I7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="K7" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O7" s="5">
         <v>999999</v>
@@ -1065,19 +1065,19 @@
         <v>4.4800000000000004</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
@@ -1091,37 +1091,37 @@
         <v>23</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>27</v>
       </c>
       <c r="H8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="J8" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O8" s="5">
         <v>999999</v>
@@ -1130,19 +1130,19 @@
         <v>4.67</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
@@ -1156,37 +1156,37 @@
         <v>23</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="F9" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>27</v>
       </c>
       <c r="H9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="I9" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="J9" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O9" s="5">
         <v>999999</v>
@@ -1195,19 +1195,19 @@
         <v>4.5599999999999996</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U9" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
@@ -1236,22 +1236,22 @@
         <v>28</v>
       </c>
       <c r="I10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J10" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="K10" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O10" s="5">
         <v>999999</v>
@@ -1260,19 +1260,19 @@
         <v>4.87</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
@@ -1295,28 +1295,28 @@
         <v>26</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>28</v>
       </c>
       <c r="I11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J11" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="K11" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="5">
         <v>999999</v>
@@ -1325,19 +1325,19 @@
         <v>4.1500000000000004</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U11" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
@@ -1351,37 +1351,37 @@
         <v>23</v>
       </c>
       <c r="D12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="F12" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>27</v>
       </c>
       <c r="H12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="I12" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="J12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O12" s="5">
         <v>999999</v>
@@ -1390,19 +1390,19 @@
         <v>4.1100000000000003</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S12" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U12" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
@@ -1431,22 +1431,22 @@
         <v>28</v>
       </c>
       <c r="I13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J13" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="K13" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O13" s="5">
         <v>999999</v>
@@ -1455,19 +1455,19 @@
         <v>4.87</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U13" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
@@ -1481,13 +1481,13 @@
         <v>23</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>27</v>
@@ -1496,22 +1496,22 @@
         <v>28</v>
       </c>
       <c r="I14" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J14" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="K14" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O14" s="5">
         <v>999999</v>
@@ -1520,19 +1520,19 @@
         <v>3.5</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U14" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
@@ -1546,37 +1546,37 @@
         <v>23</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>28</v>
       </c>
       <c r="I15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J15" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="K15" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O15" s="5">
         <v>999999</v>
@@ -1585,19 +1585,19 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U15" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
@@ -1611,13 +1611,13 @@
         <v>23</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>27</v>
@@ -1626,22 +1626,22 @@
         <v>28</v>
       </c>
       <c r="I16" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J16" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="K16" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O16" s="5">
         <v>999999</v>
@@ -1650,19 +1650,19 @@
         <v>4</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U16" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
@@ -1685,28 +1685,28 @@
         <v>26</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>28</v>
       </c>
       <c r="I17" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J17" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J17" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="K17" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O17" s="5">
         <v>999999</v>
@@ -1715,19 +1715,19 @@
         <v>4.62</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U17" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
@@ -1741,13 +1741,13 @@
         <v>23</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>27</v>
@@ -1756,22 +1756,22 @@
         <v>28</v>
       </c>
       <c r="I18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J18" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J18" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="K18" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O18" s="5">
         <v>999999</v>
@@ -1780,19 +1780,19 @@
         <v>3.42</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S18" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U18" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
@@ -1806,37 +1806,37 @@
         <v>23</v>
       </c>
       <c r="D19" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="F19" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>27</v>
       </c>
       <c r="H19" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I19" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="I19" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="J19" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O19" s="5">
         <v>999999</v>
@@ -1845,19 +1845,19 @@
         <v>4.4400000000000004</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U19" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
@@ -1871,13 +1871,13 @@
         <v>23</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>25</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>27</v>
@@ -1885,23 +1885,23 @@
       <c r="H20" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="I20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J20" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="K20" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N20" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O20" s="7">
         <v>999999</v>
@@ -1910,19 +1910,19 @@
         <v>3.47</v>
       </c>
       <c r="Q20" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R20" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S20" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T20" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U20" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
